--- a/public/admin/archivos/FORMATO_EMPLEADOS.xlsx
+++ b/public/admin/archivos/FORMATO_EMPLEADOS.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\multiusuarios\public\admin\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37713B-A2B9-4ED3-9BDA-7A1B742907FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>CEDULA</t>
   </si>
@@ -42,9 +42,6 @@
     <t>FECHA_INGRESO</t>
   </si>
   <si>
-    <t>STATUS_EMPLEADO</t>
-  </si>
-  <si>
     <t>CARGO</t>
   </si>
   <si>
@@ -57,33 +54,18 @@
     <t>CUENTA_PRESTAMO</t>
   </si>
   <si>
-    <t>HORAS_EXTRAS</t>
-  </si>
-  <si>
-    <t>FONDO_RESERVA</t>
-  </si>
-  <si>
     <t>DEPARTAMENTO</t>
   </si>
   <si>
     <t>TIPO_EMPLEADO</t>
   </si>
   <si>
-    <t>AFILIADO_IESS</t>
-  </si>
-  <si>
     <t>FECHA_AFILICION</t>
   </si>
   <si>
     <t>CARGO_ID</t>
   </si>
   <si>
-    <t>IESS_ASUMIDO</t>
-  </si>
-  <si>
-    <t>IMPUESTO_RENTA_MENSUAL</t>
-  </si>
-  <si>
     <t>SEXO</t>
   </si>
   <si>
@@ -166,13 +148,151 @@
   </si>
   <si>
     <t>COSECHA</t>
+  </si>
+  <si>
+    <t>0706510567</t>
+  </si>
+  <si>
+    <t>JORGE GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOS  VERGELES</t>
+  </si>
+  <si>
+    <t>JEFE DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>HORAS_EXTRAS (NO=0), (SI = 1)*</t>
+  </si>
+  <si>
+    <t>Preguntas</t>
+  </si>
+  <si>
+    <t>SISTEMAS</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>INGENIERO DE SISTEMAS</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>MACHALA</t>
+  </si>
+  <si>
+    <t>ECUATORIANA</t>
+  </si>
+  <si>
+    <t>SOLTERO/A</t>
+  </si>
+  <si>
+    <t>UNION DE HECHO</t>
+  </si>
+  <si>
+    <t>CASADO/A</t>
+  </si>
+  <si>
+    <t>DIVORCIADO/A</t>
+  </si>
+  <si>
+    <t>VUIDO/A</t>
+  </si>
+  <si>
+    <t>0991241252</t>
+  </si>
+  <si>
+    <t>JORGE@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>Tip cuenta</t>
+  </si>
+  <si>
+    <t>AHORROS</t>
+  </si>
+  <si>
+    <t>CORRIENTE</t>
+  </si>
+  <si>
+    <t>Banco Pichincha</t>
+  </si>
+  <si>
+    <t>Banco de Guayaquil</t>
+  </si>
+  <si>
+    <t>Banco de Machala</t>
+  </si>
+  <si>
+    <t>Banco Bolivariano</t>
+  </si>
+  <si>
+    <t>Banco Solidario</t>
+  </si>
+  <si>
+    <t>Banco Produbanco</t>
+  </si>
+  <si>
+    <t>Banco Internacional</t>
+  </si>
+  <si>
+    <t>Banco Amazonas</t>
+  </si>
+  <si>
+    <t>Banco Procredit</t>
+  </si>
+  <si>
+    <t>Banco General Rumiñahui</t>
+  </si>
+  <si>
+    <t>Banco del Pacífico</t>
+  </si>
+  <si>
+    <t>Banco de Loja</t>
+  </si>
+  <si>
+    <t>Banco del Austro</t>
+  </si>
+  <si>
+    <t>Banco de Pichincha</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
+  </si>
+  <si>
+    <t>FONDO_RESERVA (NO=0), (SI = 1)*</t>
+  </si>
+  <si>
+    <t>AFILIADO_IESS  (NO=0), (SI = 1)*</t>
+  </si>
+  <si>
+    <t>IESS_ASUMIDO  (NO=0), (SI = 1)*</t>
+  </si>
+  <si>
+    <t>IMPUESTO_RENTA_MENSUAL  (NO=0), (SI = 1)*</t>
+  </si>
+  <si>
+    <t>22-8</t>
+  </si>
+  <si>
+    <t>2457421</t>
+  </si>
+  <si>
+    <t>QUINCENA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,16 +300,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,16 +350,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,198 +675,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="44.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="68" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="57" customWidth="1"/>
+    <col min="37" max="37" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="E2" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
+      <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44835</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2">
+        <v>34221</v>
+      </c>
+      <c r="X2">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2">
+        <v>12451245</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:K2 N2 Q2:R2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$2:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>AQ2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
